--- a/trunk/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
+++ b/trunk/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Register_v1.0_EN.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
@@ -275,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$67</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$30</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$51</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$65</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$28</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$49</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$74</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$23</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="167">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1034,21 +1039,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Capcha</t>
-  </si>
-  <si>
-    <t>1.2.1.7</t>
-  </si>
-  <si>
-    <t>1.2.1.8</t>
-  </si>
-  <si>
-    <t>Register by Facebook</t>
-  </si>
-  <si>
-    <t>Register by Google</t>
-  </si>
-  <si>
     <t>Input username  in "Tên đăng nhập" textbox</t>
   </si>
   <si>
@@ -1064,22 +1054,7 @@
     <t>Input email in "Email" textbox</t>
   </si>
   <si>
-    <t>Input capcha in "Mã xác nhận" textbox</t>
-  </si>
-  <si>
-    <t>Click on Register by Facebook link</t>
-  </si>
-  <si>
-    <t>Click on Register by Google link</t>
-  </si>
-  <si>
     <t>Display message confirm successful</t>
-  </si>
-  <si>
-    <t>Display Register by Facebook form</t>
-  </si>
-  <si>
-    <t>Display Register by Google form</t>
   </si>
   <si>
     <t xml:space="preserve">- Input correct information
@@ -1114,6 +1089,12 @@
   </si>
   <si>
     <t>Word that user input is displayed and characters must be hide</t>
+  </si>
+  <si>
+    <t>Captcha</t>
+  </si>
+  <si>
+    <t>Input captcha in "Mã xác nhận" textbox</t>
   </si>
 </sst>
 </file>
@@ -3113,6 +3094,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3133,24 +3132,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3468,6 +3449,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6042,7 +6026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6077,7 +6061,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6308,14 +6292,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6330,12 +6314,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6347,12 +6331,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6361,15 +6345,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6378,11 +6362,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6405,10 +6389,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6426,10 +6410,10 @@
       <c r="B10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6443,8 +6427,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6452,8 +6436,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6461,8 +6445,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6470,8 +6454,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6479,8 +6463,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6488,8 +6472,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6497,6 +6481,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6504,12 +6494,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6523,10 +6507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6647,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6719,7 +6703,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="98.25" customHeight="1">
@@ -6747,7 +6731,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
@@ -6777,7 +6761,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6808,10 +6792,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
@@ -6836,10 +6820,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6864,10 +6848,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="34.5" customHeight="1">
@@ -6892,10 +6876,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6920,10 +6904,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6936,7 +6920,7 @@
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6948,51 +6932,41 @@
         <v>37</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="D19" s="60"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="27">
+      <c r="E19" s="61"/>
+      <c r="F19" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63" t="s">
-        <v>154</v>
+      <c r="C20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>142</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7004,79 +6978,61 @@
         <v>37</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="55"/>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="33" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48" t="s">
+      <c r="C21" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1">
+      <c r="D21" s="49"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="73"/>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="65"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -7088,9 +7044,9 @@
       <c r="I24" s="68"/>
       <c r="J24" s="69"/>
       <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-    </row>
-    <row r="25" spans="1:12" s="44" customFormat="1">
+      <c r="L24" s="73"/>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A25" s="65"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -7102,9 +7058,9 @@
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
       <c r="K25" s="67"/>
-      <c r="L25" s="73"/>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="L25" s="67"/>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -7118,7 +7074,7 @@
       <c r="K26" s="67"/>
       <c r="L26" s="73"/>
     </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+    <row r="27" spans="1:12" s="44" customFormat="1">
       <c r="A27" s="65"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -7130,21 +7086,21 @@
       <c r="I27" s="68"/>
       <c r="J27" s="69"/>
       <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="73"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1">
       <c r="A29" s="65"/>
@@ -7158,25 +7114,25 @@
       <c r="I29" s="68"/>
       <c r="J29" s="69"/>
       <c r="K29" s="67"/>
-      <c r="L29" s="73"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="73"/>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
       <c r="E31" s="67"/>
@@ -7186,25 +7142,25 @@
       <c r="I31" s="68"/>
       <c r="J31" s="69"/>
       <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1">
       <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="66"/>
       <c r="D32" s="66"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
-      <c r="G32" s="72"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="66"/>
       <c r="I32" s="68"/>
       <c r="J32" s="69"/>
       <c r="K32" s="67"/>
       <c r="L32" s="73"/>
     </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="33" spans="1:12" s="44" customFormat="1">
       <c r="A33" s="65"/>
-      <c r="B33" s="74"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="66"/>
       <c r="D33" s="66"/>
       <c r="E33" s="67"/>
@@ -7214,21 +7170,21 @@
       <c r="I33" s="68"/>
       <c r="J33" s="69"/>
       <c r="K33" s="67"/>
-      <c r="L33" s="73"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="65"/>
-      <c r="B34" s="74"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="66"/>
       <c r="D34" s="66"/>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="66"/>
       <c r="I34" s="68"/>
       <c r="J34" s="69"/>
       <c r="K34" s="67"/>
-      <c r="L34" s="73"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
       <c r="A35" s="65"/>
@@ -7237,12 +7193,12 @@
       <c r="D35" s="66"/>
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
-      <c r="G35" s="72"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="66"/>
       <c r="I35" s="68"/>
       <c r="J35" s="69"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">
       <c r="A36" s="65"/>
@@ -7255,8 +7211,8 @@
       <c r="H36" s="66"/>
       <c r="I36" s="68"/>
       <c r="J36" s="69"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="75"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
     </row>
     <row r="37" spans="1:12" s="44" customFormat="1">
       <c r="A37" s="65"/>
@@ -7265,14 +7221,14 @@
       <c r="D37" s="66"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
-      <c r="G37" s="76"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="66"/>
       <c r="I37" s="68"/>
       <c r="J37" s="69"/>
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
     </row>
-    <row r="38" spans="1:12" s="44" customFormat="1">
+    <row r="38" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="65"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -7300,7 +7256,7 @@
       <c r="K39" s="73"/>
       <c r="L39" s="73"/>
     </row>
-    <row r="40" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="40" spans="1:12" s="44" customFormat="1">
       <c r="A40" s="65"/>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
@@ -7427,18 +7383,18 @@
       <c r="L48" s="73"/>
     </row>
     <row r="49" spans="1:12" s="44" customFormat="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
     </row>
     <row r="50" spans="1:12" s="44" customFormat="1">
       <c r="A50" s="65"/>
@@ -7451,26 +7407,26 @@
       <c r="H50" s="66"/>
       <c r="I50" s="68"/>
       <c r="J50" s="69"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
     </row>
     <row r="51" spans="1:12" s="44" customFormat="1">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="73"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="66"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="66"/>
       <c r="D52" s="66"/>
       <c r="E52" s="67"/>
@@ -7480,16 +7436,16 @@
       <c r="I52" s="68"/>
       <c r="J52" s="69"/>
       <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
+      <c r="L52" s="73"/>
     </row>
     <row r="53" spans="1:12" s="44" customFormat="1">
       <c r="A53" s="65"/>
-      <c r="B53" s="66"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="66"/>
       <c r="D53" s="66"/>
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
-      <c r="G53" s="72"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="66"/>
       <c r="I53" s="68"/>
       <c r="J53" s="69"/>
@@ -7503,7 +7459,7 @@
       <c r="D54" s="66"/>
       <c r="E54" s="67"/>
       <c r="F54" s="67"/>
-      <c r="G54" s="72"/>
+      <c r="G54" s="67"/>
       <c r="H54" s="66"/>
       <c r="I54" s="68"/>
       <c r="J54" s="69"/>
@@ -7596,8 +7552,8 @@
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
       <c r="A61" s="65"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="66"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
@@ -7606,28 +7562,28 @@
       <c r="I61" s="68"/>
       <c r="J61" s="69"/>
       <c r="K61" s="67"/>
-      <c r="L61" s="73"/>
+      <c r="L61" s="67"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="65"/>
       <c r="B62" s="74"/>
-      <c r="C62" s="66"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="66"/>
-      <c r="E62" s="67"/>
+      <c r="E62" s="72"/>
       <c r="F62" s="67"/>
       <c r="G62" s="67"/>
       <c r="H62" s="66"/>
       <c r="I62" s="68"/>
       <c r="J62" s="69"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="73"/>
+      <c r="L62" s="67"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="74"/>
       <c r="D63" s="66"/>
-      <c r="E63" s="67"/>
+      <c r="E63" s="72"/>
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
       <c r="H63" s="66"/>
@@ -7639,25 +7595,25 @@
     <row r="64" spans="1:12" s="44" customFormat="1">
       <c r="A64" s="65"/>
       <c r="B64" s="74"/>
-      <c r="C64" s="74"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="66"/>
       <c r="E64" s="72"/>
       <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="66"/>
       <c r="I64" s="68"/>
       <c r="J64" s="69"/>
-      <c r="K64" s="67"/>
+      <c r="K64" s="73"/>
       <c r="L64" s="67"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
       <c r="A65" s="65"/>
       <c r="B65" s="74"/>
-      <c r="C65" s="74"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="66"/>
       <c r="E65" s="72"/>
       <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
+      <c r="G65" s="72"/>
       <c r="H65" s="66"/>
       <c r="I65" s="68"/>
       <c r="J65" s="69"/>
@@ -7666,25 +7622,25 @@
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
       <c r="A66" s="65"/>
-      <c r="B66" s="74"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
       <c r="E66" s="72"/>
-      <c r="F66" s="67"/>
+      <c r="F66" s="72"/>
       <c r="G66" s="72"/>
       <c r="H66" s="66"/>
       <c r="I66" s="68"/>
       <c r="J66" s="69"/>
-      <c r="K66" s="73"/>
+      <c r="K66" s="67"/>
       <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
       <c r="A67" s="65"/>
-      <c r="B67" s="74"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="66"/>
       <c r="D67" s="66"/>
       <c r="E67" s="72"/>
-      <c r="F67" s="67"/>
+      <c r="F67" s="72"/>
       <c r="G67" s="72"/>
       <c r="H67" s="66"/>
       <c r="I67" s="68"/>
@@ -7693,46 +7649,46 @@
       <c r="L67" s="67"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="70"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="65"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="66"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="77"/>
       <c r="H69" s="66"/>
       <c r="I69" s="68"/>
       <c r="J69" s="69"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="70"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="77"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
       <c r="A71" s="38"/>
@@ -7740,12 +7696,12 @@
       <c r="C71" s="69"/>
       <c r="D71" s="66"/>
       <c r="E71" s="77"/>
-      <c r="F71" s="67"/>
+      <c r="F71" s="77"/>
       <c r="G71" s="77"/>
       <c r="H71" s="66"/>
       <c r="I71" s="68"/>
       <c r="J71" s="69"/>
-      <c r="K71" s="77"/>
+      <c r="K71" s="78"/>
       <c r="L71" s="77"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1">
@@ -7754,7 +7710,7 @@
       <c r="C72" s="69"/>
       <c r="D72" s="66"/>
       <c r="E72" s="77"/>
-      <c r="F72" s="67"/>
+      <c r="F72" s="77"/>
       <c r="G72" s="77"/>
       <c r="H72" s="66"/>
       <c r="I72" s="68"/>
@@ -7777,18 +7733,19 @@
       <c r="L73" s="77"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="77"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="70"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="1:13" s="44" customFormat="1">
       <c r="A75" s="38"/>
@@ -7796,45 +7753,45 @@
       <c r="C75" s="69"/>
       <c r="D75" s="66"/>
       <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
+      <c r="F75" s="67"/>
       <c r="G75" s="77"/>
       <c r="H75" s="66"/>
       <c r="I75" s="68"/>
       <c r="J75" s="69"/>
       <c r="K75" s="78"/>
       <c r="L75" s="77"/>
-    </row>
-    <row r="76" spans="1:13" s="44" customFormat="1">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="37"/>
-    </row>
-    <row r="77" spans="1:13" s="44" customFormat="1">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="37"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="M75" s="37"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="44"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="70"/>
+    </row>
+    <row r="78" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="69"/>
@@ -7847,109 +7804,110 @@
       <c r="J78" s="69"/>
       <c r="K78" s="78"/>
       <c r="L78" s="77"/>
-      <c r="M78" s="44"/>
+      <c r="M78" s="37"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="70"/>
-    </row>
-    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="37"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="78"/>
+      <c r="L79" s="77"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="70"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="69"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="66"/>
-      <c r="E81" s="77"/>
+      <c r="E81" s="67"/>
       <c r="F81" s="67"/>
-      <c r="G81" s="77"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="77"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="70"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="44"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="65"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="65"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="44"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="70"/>
+    </row>
+    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="37"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="70"/>
-    </row>
-    <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="44"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -7962,9 +7920,8 @@
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
-      <c r="M86" s="37"/>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -7977,7 +7934,7 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="44"/>
+      <c r="M87" s="37"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="38"/>
@@ -7992,8 +7949,9 @@
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
-    </row>
-    <row r="89" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M88" s="44"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -8006,9 +7964,9 @@
       <c r="J89" s="38"/>
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
-      <c r="M89" s="37"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="M89" s="44"/>
+    </row>
+    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -8021,9 +7979,9 @@
       <c r="J90" s="38"/>
       <c r="K90" s="38"/>
       <c r="L90" s="38"/>
-      <c r="M90" s="44"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="M90" s="37"/>
+    </row>
+    <row r="91" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -8036,9 +7994,9 @@
       <c r="J91" s="38"/>
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
-      <c r="M91" s="44"/>
-    </row>
-    <row r="92" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M91" s="37"/>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -8051,9 +8009,8 @@
       <c r="J92" s="38"/>
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
-      <c r="M92" s="37"/>
-    </row>
-    <row r="93" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -8066,73 +8023,44 @@
       <c r="J93" s="38"/>
       <c r="K93" s="38"/>
       <c r="L93" s="38"/>
-      <c r="M93" s="37"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="67"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="65"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="67"/>
-      <c r="L96" s="67"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="65"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="69"/>
-      <c r="K97" s="67"/>
-      <c r="L97" s="67"/>
-    </row>
-    <row r="101" spans="1:12" ht="37.5" customHeight="1"/>
-    <row r="102" spans="1:12" ht="37.5" customHeight="1"/>
-    <row r="103" spans="1:12" ht="37.5" customHeight="1"/>
-    <row r="104" spans="1:12" ht="37.5" customHeight="1"/>
-    <row r="106" spans="1:12" ht="18" customHeight="1"/>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="111" spans="1:12" ht="30" customHeight="1"/>
-    <row r="115" ht="44.25" customHeight="1"/>
-    <row r="116" ht="45" customHeight="1"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+    </row>
+    <row r="99" ht="37.5" customHeight="1"/>
+    <row r="100" ht="37.5" customHeight="1"/>
+    <row r="101" ht="37.5" customHeight="1"/>
+    <row r="102" ht="37.5" customHeight="1"/>
+    <row r="104" ht="18" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="109" ht="30" customHeight="1"/>
+    <row r="113" ht="44.25" customHeight="1"/>
+    <row r="114" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8150,19 +8078,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I82 I51 I79 I76 I70 I85">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I80 I49 I77 I74 I68 I83">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J82 J51 J79 J76 J70 J85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80 J49 J77 J74 J68 J83">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H96:H97 H31:H82 H84:H85 H8:H10 H13:H29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H95 H29:H80 H82:H83 H8:H10 H13:H27">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I96:I97 I31:I50 I52:I69 I80:I81 I77:I78 I71:I75 I84 I8:I10 I13:I29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I94:I95 I29:I48 I50:I67 I78:I79 I75:I76 I69:I73 I82 I8:I10 I13:I27">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J75 J77:J78 J84 J80:J81 J52:J69 J31:J50 J96:J97 J8:J10 J13:J29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J75:J76 J82 J78:J79 J50:J67 J29:J48 J94:J95 J8:J10 J13:J27">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
